--- a/data/publisher_peer_review/xlsx/peer_review_wiley.xlsx
+++ b/data/publisher_peer_review/xlsx/peer_review_wiley.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">creator</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.wiley.com/</t>
+    <t xml:space="preserve">https://wiley.com</t>
   </si>
   <si>
     <t xml:space="preserve">date</t>
@@ -713,10 +713,10 @@
   </sheetPr>
   <dimension ref="A1:AT38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3329,7 +3329,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://www.wiley.com/"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://wiley.com"/>
     <hyperlink ref="F7" r:id="rId2" display="https://onlinelibrary.wiley.com/journal/14691809"/>
     <hyperlink ref="F8" r:id="rId3" display="https://onlinelibrary.wiley.com/journal/1542474X"/>
     <hyperlink ref="F9" r:id="rId4" display="https://onlinelibrary.wiley.com/journal/14401584"/>

--- a/data/publisher_peer_review/xlsx/peer_review_wiley.xlsx
+++ b/data/publisher_peer_review/xlsx/peer_review_wiley.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">creator</t>
   </si>
   <si>
-    <t xml:space="preserve">https://wiley.com</t>
+    <t xml:space="preserve">https://www.wiley.com</t>
   </si>
   <si>
     <t xml:space="preserve">date</t>
@@ -3329,7 +3329,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://wiley.com"/>
+    <hyperlink ref="B1" r:id="rId1" display="https://www.wiley.com"/>
     <hyperlink ref="F7" r:id="rId2" display="https://onlinelibrary.wiley.com/journal/14691809"/>
     <hyperlink ref="F8" r:id="rId3" display="https://onlinelibrary.wiley.com/journal/1542474X"/>
     <hyperlink ref="F9" r:id="rId4" display="https://onlinelibrary.wiley.com/journal/14401584"/>
